--- a/gropin/schema/metadataschema505.xlsx
+++ b/gropin/schema/metadataschema505.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Gropin growth model for Yersinia enterocolitica in/on Meat _ComBase data_ (gropin ID: 505 )</t>
+          <t>Gropin secondary growth model for Yersinia enterocolitica in/on Meat _ComBase data_ (gropin ID: 505 )</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>QRA model</t>
+          <t>Predictive</t>
         </is>
       </c>
     </row>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>seq(-1.001,36.963036963037,length.out=21)</t>
+          <t>seq(-1.001,36.963036963037,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5296,7 +5296,7 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>seq(4.004,6.99300699300699,length.out=21)</t>
+          <t>seq(4.004,6.99300699300699,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>seq(0.9009,0.998001998001998,length.out=21)</t>
+          <t>seq(0.9009,0.998001998001998,length.out=10)</t>
         </is>
       </c>
     </row>
